--- a/data/trans_dic/P05B_R-Dificultad-trans_dic.xlsx
+++ b/data/trans_dic/P05B_R-Dificultad-trans_dic.xlsx
@@ -697,7 +697,7 @@
         <v>0.02063386685647715</v>
       </c>
       <c r="N4" s="5" t="n">
-        <v>0.02981156437959913</v>
+        <v>0.02981156437959914</v>
       </c>
     </row>
     <row r="5">
@@ -708,40 +708,40 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.02357105536424387</v>
+        <v>0.0237937635524322</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.01856597102979394</v>
+        <v>0.01817809708604626</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.01325866165653099</v>
+        <v>0.01222751165164158</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.01562442930500523</v>
+        <v>0.01574612757516222</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.06580214391145264</v>
+        <v>0.06656390480780014</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.01546479265652688</v>
+        <v>0.01611338375750809</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.01330069099951344</v>
+        <v>0.01398780626419557</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.02119187352343536</v>
+        <v>0.01906767531616901</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.05305098645158625</v>
+        <v>0.05323020077815269</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>0.01923503254403498</v>
+        <v>0.01941015919553891</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>0.01485534782555256</v>
+        <v>0.01540648961945818</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>0.02130193812374012</v>
+        <v>0.02090766104647159</v>
       </c>
     </row>
     <row r="6">
@@ -752,40 +752,40 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.05445520438803853</v>
+        <v>0.05604664276611233</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.03968645068911809</v>
+        <v>0.04030105467798849</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.03154477849659722</v>
+        <v>0.03197778199059514</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.04877026100067208</v>
+        <v>0.04989534799829219</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.1025885812940194</v>
+        <v>0.1015836952904597</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.03480393171451913</v>
+        <v>0.03486801660401073</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.03069764820852404</v>
+        <v>0.02942764430826859</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.04562099569834491</v>
+        <v>0.04510808397389821</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.078527934509528</v>
+        <v>0.07869737646481614</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>0.03400838069903803</v>
+        <v>0.03373796458689588</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>0.0272513982678826</v>
+        <v>0.0270985787982985</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>0.04177564826586482</v>
+        <v>0.04074983383570382</v>
       </c>
     </row>
     <row r="7">
@@ -821,7 +821,7 @@
         <v>0.01983578323865634</v>
       </c>
       <c r="J7" s="5" t="n">
-        <v>0.007969997048923922</v>
+        <v>0.007969997048923923</v>
       </c>
       <c r="K7" s="5" t="n">
         <v>0.03651065154382219</v>
@@ -833,7 +833,7 @@
         <v>0.01764115802729187</v>
       </c>
       <c r="N7" s="5" t="n">
-        <v>0.009357274518319345</v>
+        <v>0.009357274518319343</v>
       </c>
     </row>
     <row r="8">
@@ -844,40 +844,40 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.02683813687124775</v>
+        <v>0.0264454364552865</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.004026072771404592</v>
+        <v>0.003920681572771395</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.008613145308624061</v>
+        <v>0.008353819012745135</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.004812594614413033</v>
+        <v>0.0047980638630154</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.02574217166518223</v>
+        <v>0.02516109380330597</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.01082618896609208</v>
+        <v>0.01093260002766104</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.0130127484128034</v>
+        <v>0.01227691286861767</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.004180635619674209</v>
+        <v>0.004227759655241608</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.02922221117158586</v>
+        <v>0.02898864298784349</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>0.008822392411987933</v>
+        <v>0.009034031622392007</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>0.01247766558264782</v>
+        <v>0.01225951275075762</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>0.005465060784566918</v>
+        <v>0.005670257053000994</v>
       </c>
     </row>
     <row r="9">
@@ -888,40 +888,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.04986615149002888</v>
+        <v>0.04958582369477918</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.01924926453320406</v>
+        <v>0.01763324942757076</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.02669692292100616</v>
+        <v>0.02548760495014779</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.0226029976038721</v>
+        <v>0.02167781809382889</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.04753439727446517</v>
+        <v>0.04916807207759105</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.02844965045301373</v>
+        <v>0.02876113613248652</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.03276928265076488</v>
+        <v>0.03247647870006842</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.01410594944723828</v>
+        <v>0.01451365155275876</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.04574351700353896</v>
+        <v>0.04544072952432315</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>0.02068319145561497</v>
+        <v>0.02006716906612183</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>0.02466219717003917</v>
+        <v>0.02519279768593378</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>0.01463887478744244</v>
+        <v>0.01513321056528654</v>
       </c>
     </row>
     <row r="10">
@@ -980,40 +980,40 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.01219728885448867</v>
+        <v>0.01242737605265383</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.006921945342869757</v>
+        <v>0.006831911465004114</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.003711371560106566</v>
+        <v>0.003782968737074931</v>
       </c>
       <c r="F11" s="5" t="n">
         <v>0</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.02076541934004782</v>
+        <v>0.02107696267786616</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.002397626155358884</v>
+        <v>0.002475609441912908</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.01004158683427909</v>
+        <v>0.009740297305670323</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.00570125876160609</v>
+        <v>0.005649576338698732</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.01907291794916345</v>
+        <v>0.01858610800823808</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>0.005918963328006299</v>
+        <v>0.006308052575367415</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>0.008011902815836205</v>
+        <v>0.008388289890136808</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>0.003499135506591457</v>
+        <v>0.003470444049063123</v>
       </c>
     </row>
     <row r="12">
@@ -1024,40 +1024,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.02987385542896921</v>
+        <v>0.03088078524726063</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.02220547967852238</v>
+        <v>0.02257842334144812</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.01657442329114962</v>
+        <v>0.01765896439136157</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.004953770403412195</v>
+        <v>0.004881686862017369</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.04366941072869732</v>
+        <v>0.04271504543506066</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.01520302225021128</v>
+        <v>0.01510980883678176</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.03159117353158633</v>
+        <v>0.02954510123340831</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.01645008527966929</v>
+        <v>0.01603427619709381</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.03268625327947714</v>
+        <v>0.03218877031260096</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>0.01554346222885613</v>
+        <v>0.01576415924813236</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>0.02032736946205862</v>
+        <v>0.02052621438945756</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>0.008752361239182712</v>
+        <v>0.009061366615275811</v>
       </c>
     </row>
     <row r="13">
@@ -1116,40 +1116,40 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.014086957003779</v>
+        <v>0.01440860849063627</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.003743945049643949</v>
+        <v>0.003804707840939145</v>
       </c>
       <c r="E14" s="5" t="n">
         <v>0</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.00635267865707023</v>
+        <v>0.005680552940512429</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.02320793647477867</v>
+        <v>0.02100241292260098</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.002281677884065227</v>
+        <v>0.002303803195972118</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.01646048821518746</v>
+        <v>0.01660984002213457</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.005590179619613443</v>
+        <v>0.005702896782997272</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.02101301952731276</v>
+        <v>0.02101412488130656</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>0.00505458100810175</v>
+        <v>0.005039266056391358</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>0.01023734432255771</v>
+        <v>0.009473093396765241</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>0.007099256120324702</v>
+        <v>0.007381087439602255</v>
       </c>
     </row>
     <row r="15">
@@ -1160,40 +1160,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.04894613407984649</v>
+        <v>0.04987510451566689</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.02768448981790857</v>
+        <v>0.02753169038040224</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.01400538098713518</v>
+        <v>0.0137089220449451</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.01858427083689001</v>
+        <v>0.01874728300444741</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.06479712188952504</v>
+        <v>0.06352914809666264</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.02294761257318368</v>
+        <v>0.02378218882541957</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.05006318102592038</v>
+        <v>0.05049173160128734</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.01811825372824186</v>
+        <v>0.01757962157446964</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.04689376233149717</v>
+        <v>0.04752540055960893</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>0.01961470385439242</v>
+        <v>0.01875077368854938</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>0.02759092597591982</v>
+        <v>0.02676467246795512</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>0.01578488611911733</v>
+        <v>0.01602700724386259</v>
       </c>
     </row>
     <row r="16">
@@ -1229,7 +1229,7 @@
         <v>0.02117471966170608</v>
       </c>
       <c r="J16" s="5" t="n">
-        <v>0.01290475302241478</v>
+        <v>0.01290475302241479</v>
       </c>
       <c r="K16" s="5" t="n">
         <v>0.03877324107383668</v>
@@ -1252,40 +1252,40 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.02442012620945501</v>
+        <v>0.02354700844827416</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.01210226677548335</v>
+        <v>0.01188241924340419</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.009923685719142556</v>
+        <v>0.009713795023692223</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.007350262595126455</v>
+        <v>0.007536825670890334</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.04018788437770477</v>
+        <v>0.04022405163825701</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.01190676229849032</v>
+        <v>0.01221635917595356</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.01634016787710748</v>
+        <v>0.01678750994029093</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.01015240620325015</v>
+        <v>0.009858181964410859</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.03430612010932047</v>
+        <v>0.03447066708234354</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>0.01317426014239712</v>
+        <v>0.01332271183056033</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>0.01455927322181885</v>
+        <v>0.01461606064358598</v>
       </c>
       <c r="N17" s="5" t="n">
-        <v>0.009413799526445181</v>
+        <v>0.009699294645103322</v>
       </c>
     </row>
     <row r="18">
@@ -1296,40 +1296,40 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.03602964167092616</v>
+        <v>0.03708133116909564</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.02139663732669218</v>
+        <v>0.02114854401628998</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.01867141804508742</v>
+        <v>0.01782257159505471</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.01494130274572371</v>
+        <v>0.01490909287126248</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.05563893447100339</v>
+        <v>0.05528552297761066</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.02081206370029018</v>
+        <v>0.02065871079143788</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.02632888577283992</v>
+        <v>0.0268482420264761</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.01648392458412487</v>
+        <v>0.01627809410681416</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.04425742699689945</v>
+        <v>0.04404833709859769</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>0.01957878146309357</v>
+        <v>0.01966668439412354</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>0.02101479061839062</v>
+        <v>0.0208347721510419</v>
       </c>
       <c r="N18" s="5" t="n">
-        <v>0.01445510072286817</v>
+        <v>0.01464279604099949</v>
       </c>
     </row>
     <row r="19">
@@ -1600,40 +1600,40 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
+        <v>13879</v>
+      </c>
+      <c r="D6" s="6" t="n">
+        <v>18977</v>
+      </c>
+      <c r="E6" s="6" t="n">
         <v>13749</v>
       </c>
-      <c r="D6" s="6" t="n">
-        <v>19382</v>
-      </c>
-      <c r="E6" s="6" t="n">
-        <v>14909</v>
-      </c>
       <c r="F6" s="6" t="n">
-        <v>7744</v>
+        <v>7805</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>60691</v>
+        <v>61394</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>17253</v>
+        <v>17977</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>16708</v>
+        <v>17571</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>13141</v>
+        <v>11824</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>79876</v>
+        <v>80146</v>
       </c>
       <c r="L6" s="6" t="n">
-        <v>41539</v>
+        <v>41918</v>
       </c>
       <c r="M6" s="6" t="n">
-        <v>35365</v>
+        <v>36677</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>23768</v>
+        <v>23328</v>
       </c>
     </row>
     <row r="7">
@@ -1644,40 +1644,40 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>31765</v>
+        <v>32693</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>41430</v>
+        <v>42072</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>35470</v>
+        <v>35957</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>24173</v>
+        <v>24731</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>94621</v>
+        <v>93694</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>38828</v>
+        <v>38900</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>38561</v>
+        <v>36966</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>28290</v>
+        <v>27972</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>118236</v>
+        <v>118491</v>
       </c>
       <c r="L7" s="6" t="n">
-        <v>73443</v>
+        <v>72859</v>
       </c>
       <c r="M7" s="6" t="n">
-        <v>64874</v>
+        <v>64511</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>46612</v>
+        <v>45467</v>
       </c>
     </row>
     <row r="8">
@@ -1780,40 +1780,40 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>28903</v>
+        <v>28480</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>3910</v>
+        <v>3808</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>7820</v>
+        <v>7585</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>4621</v>
+        <v>4607</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>27223</v>
+        <v>26609</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>11757</v>
+        <v>11872</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>13040</v>
+        <v>12303</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>4658</v>
+        <v>4711</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>62374</v>
+        <v>61876</v>
       </c>
       <c r="L10" s="6" t="n">
-        <v>18149</v>
+        <v>18585</v>
       </c>
       <c r="M10" s="6" t="n">
-        <v>23833</v>
+        <v>23417</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>11337</v>
+        <v>11762</v>
       </c>
     </row>
     <row r="11">
@@ -1824,40 +1824,40 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>53703</v>
+        <v>53401</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>18696</v>
+        <v>17126</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>24240</v>
+        <v>23142</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>21702</v>
+        <v>20814</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>50269</v>
+        <v>51997</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>30895</v>
+        <v>31234</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>32838</v>
+        <v>32545</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>15717</v>
+        <v>16172</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>97639</v>
+        <v>96993</v>
       </c>
       <c r="L11" s="6" t="n">
-        <v>42549</v>
+        <v>41282</v>
       </c>
       <c r="M11" s="6" t="n">
-        <v>47107</v>
+        <v>48120</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>30366</v>
+        <v>31392</v>
       </c>
     </row>
     <row r="12">
@@ -1960,40 +1960,40 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>13680</v>
+        <v>13938</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>6077</v>
+        <v>5998</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>3045</v>
+        <v>3103</v>
       </c>
       <c r="F14" s="6" t="n">
         <v>0</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>20606</v>
+        <v>20915</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>2092</v>
+        <v>2160</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>7733</v>
+        <v>7501</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>5968</v>
+        <v>5914</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>40318</v>
+        <v>39289</v>
       </c>
       <c r="L14" s="6" t="n">
-        <v>10362</v>
+        <v>11043</v>
       </c>
       <c r="M14" s="6" t="n">
-        <v>12743</v>
+        <v>13341</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>7325</v>
+        <v>7265</v>
       </c>
     </row>
     <row r="15">
@@ -2004,40 +2004,40 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>33506</v>
+        <v>34636</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>19494</v>
+        <v>19822</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>13597</v>
+        <v>14487</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>5184</v>
+        <v>5109</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>43334</v>
+        <v>42387</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>13268</v>
+        <v>13186</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>24329</v>
+        <v>22753</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>17220</v>
+        <v>16784</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>69096</v>
+        <v>68044</v>
       </c>
       <c r="L15" s="6" t="n">
-        <v>27210</v>
+        <v>27597</v>
       </c>
       <c r="M15" s="6" t="n">
-        <v>32330</v>
+        <v>32647</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>18321</v>
+        <v>18968</v>
       </c>
     </row>
     <row r="16">
@@ -2140,40 +2140,40 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>6267</v>
+        <v>6410</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>1880</v>
+        <v>1910</v>
       </c>
       <c r="E18" s="6" t="n">
         <v>0</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>6186</v>
+        <v>5532</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>7918</v>
+        <v>7165</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>1031</v>
+        <v>1041</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>7973</v>
+        <v>8046</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>5075</v>
+        <v>5177</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>16516</v>
+        <v>16517</v>
       </c>
       <c r="L18" s="6" t="n">
-        <v>4821</v>
+        <v>4806</v>
       </c>
       <c r="M18" s="6" t="n">
-        <v>10137</v>
+        <v>9380</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>13358</v>
+        <v>13888</v>
       </c>
     </row>
     <row r="19">
@@ -2184,40 +2184,40 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>21773</v>
+        <v>22187</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>13900</v>
+        <v>13823</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>7084</v>
+        <v>6934</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>18097</v>
+        <v>18256</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>22106</v>
+        <v>21673</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>10366</v>
+        <v>10743</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>24250</v>
+        <v>24457</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>16448</v>
+        <v>15959</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>36859</v>
+        <v>37355</v>
       </c>
       <c r="L19" s="6" t="n">
-        <v>18708</v>
+        <v>17884</v>
       </c>
       <c r="M19" s="6" t="n">
-        <v>27320</v>
+        <v>26502</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>29701</v>
+        <v>30156</v>
       </c>
     </row>
     <row r="20">
@@ -2320,40 +2320,40 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>78797</v>
+        <v>75979</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>41089</v>
+        <v>40343</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>33329</v>
+        <v>32624</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>25550</v>
+        <v>26199</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>133156</v>
+        <v>133276</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>41983</v>
+        <v>43075</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>57399</v>
+        <v>58971</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>37451</v>
+        <v>36366</v>
       </c>
       <c r="K22" s="6" t="n">
-        <v>224364</v>
+        <v>225440</v>
       </c>
       <c r="L22" s="6" t="n">
-        <v>91181</v>
+        <v>92209</v>
       </c>
       <c r="M22" s="6" t="n">
-        <v>100042</v>
+        <v>100432</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>67450</v>
+        <v>69495</v>
       </c>
     </row>
     <row r="23">
@@ -2364,40 +2364,40 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>116257</v>
+        <v>119651</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>72645</v>
+        <v>71803</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>62709</v>
+        <v>59858</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>51937</v>
+        <v>51825</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>184351</v>
+        <v>183180</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>73383</v>
+        <v>72843</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>92487</v>
+        <v>94312</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>60808</v>
+        <v>60048</v>
       </c>
       <c r="K23" s="6" t="n">
-        <v>289446</v>
+        <v>288079</v>
       </c>
       <c r="L23" s="6" t="n">
-        <v>135508</v>
+        <v>136116</v>
       </c>
       <c r="M23" s="6" t="n">
-        <v>144400</v>
+        <v>143163</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>103571</v>
+        <v>104915</v>
       </c>
     </row>
     <row r="24">
